--- a/data/trans_bre/P6907S1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6907S1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>169,57%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 19,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,2; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 57,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,34%</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,16; 8,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,0; 6,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 11,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,89; 16,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,7; 81,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 2899,49</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,43%</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 10,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,55; 3,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,78; 1,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,13; 2,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,49; 259,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,32; 45,88</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>44,97%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,85%</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 17,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 3,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 3,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,17; 421,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,24; 93,44</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,09%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,15; 26,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,9; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,15; 6,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,34; 79,53</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,27%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,6%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 6,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 2,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 2,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 2,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,46; 93,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 136,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,34; 125,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,13; 30,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6907S1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,81</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,67</t>
+          <t>0,0; 59,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>48,66%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 16,01</t>
+          <t>-12,32; 16,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2899,49</t>
+          <t>-100,0; 3001,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,31</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-37,43%</t>
+          <t>-37,34%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 2,98</t>
+          <t>-15,57; 2,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,32; 45,88</t>
+          <t>-73,45; 42,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-27,85%</t>
+          <t>-37,54%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 3,65</t>
+          <t>-10,98; 3,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,24; 93,44</t>
+          <t>-79,6; 67,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-27,09%</t>
+          <t>-28,54%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 6,09</t>
+          <t>-13,7; 5,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-67,34; 79,53</t>
+          <t>-67,7; 76,83</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-48,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-29,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-20,6%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-2,65</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-48,18%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-29,27%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-24,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-3,3; 6,86</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-7,32; 2,16</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-3,64; 2,17</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 2,61</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-7,52; 2,04</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-30,46; 93,45</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-100,0; 136,17</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-81,34; 125,13</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-50,13; 30,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-55,99; 25,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P6907S1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Edad-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 19,74</t>
+          <t>-3,62; 20,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 0,0</t>
+          <t>-27,11; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,43</t>
+          <t>0,0; 63,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 8,59</t>
+          <t>-11,42; 10,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 6,56</t>
+          <t>-14,62; 6,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 11,11</t>
+          <t>-6,29; 10,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 16,5</t>
+          <t>-14,11; 16,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,7; 81,54</t>
+          <t>-57,92; 97,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3001,59</t>
+          <t>-100,0; 2156,0</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 10,42</t>
+          <t>-4,94; 11,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 3,85</t>
+          <t>-16,76; 4,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 1,5</t>
+          <t>-5,97; 1,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 2,94</t>
+          <t>-14,75; 3,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,49; 259,11</t>
+          <t>-59,18; 308,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,45; 42,91</t>
+          <t>-72,52; 42,51</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 17,39</t>
+          <t>-6,28; 18,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 3,41</t>
+          <t>-6,72; 4,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 3,0</t>
+          <t>-11,27; 2,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,17; 421,54</t>
+          <t>-66,29; 443,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,6; 67,57</t>
+          <t>-77,85; 54,63</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 26,14</t>
+          <t>-12,27; 25,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 0,0</t>
+          <t>-25,59; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,19</t>
+          <t>0,0; 17,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 5,87</t>
+          <t>-13,61; 6,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-67,7; 76,83</t>
+          <t>-72,2; 70,8</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,86</t>
+          <t>-2,84; 6,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 2,16</t>
+          <t>-7,91; 2,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,17</t>
+          <t>-3,54; 2,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,04</t>
+          <t>-7,97; 1,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 93,45</t>
+          <t>-26,04; 88,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 136,17</t>
+          <t>-100,0; 96,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-81,34; 125,13</t>
+          <t>-79,45; 108,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 25,61</t>
+          <t>-55,55; 21,33</t>
         </is>
       </c>
     </row>
